--- a/Wine_Quality/outputs/train_40_test_60/depth_4/wq_train_40_test_60_depth_4_report.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/depth_4/wq_train_40_test_60_depth_4_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.5564516129032258</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.2702349869451697</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08839779005524862</v>
+        <v>0.3637961335676625</v>
       </c>
       <c r="E2" t="n">
-        <v>148</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7891382654474923</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9541038525963149</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8638155899302397</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2985</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.556420233463035</v>
+        <v>0.7995463566770626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1866840731070496</v>
+        <v>0.9447236180904522</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2795698924731183</v>
+        <v>0.8660933660933661</v>
       </c>
       <c r="E4" t="n">
-        <v>766</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7691715824570403</v>
+        <v>0.7763529110028212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7691715824570403</v>
+        <v>0.7763529110028212</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7691715824570403</v>
+        <v>0.7763529110028212</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7691715824570403</v>
+        <v>0.7763529110028212</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5293275804449232</v>
+        <v>0.4519993231934294</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3982806599191395</v>
+        <v>0.4049862016785407</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4105944241528688</v>
+        <v>0.4099631665536762</v>
       </c>
       <c r="E6" t="n">
         <v>3899</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.722665916663821</v>
+        <v>0.7214382688291621</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7691715824570403</v>
+        <v>0.7763529110028212</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7196006531172995</v>
+        <v>0.7345361723779245</v>
       </c>
       <c r="E7" t="n">
         <v>3899</v>

--- a/Wine_Quality/outputs/train_40_test_60/depth_4/wq_train_40_test_60_depth_4_report.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/depth_4/wq_train_40_test_60_depth_4_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5564516129032258</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2702349869451697</v>
+        <v>0.27</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3637961335676625</v>
+        <v>0.36</v>
       </c>
       <c r="E2" t="n">
         <v>766</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7995463566770626</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9447236180904522</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8660933660933661</v>
+        <v>0.87</v>
       </c>
       <c r="E4" t="n">
         <v>2985</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7763529110028212</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7763529110028212</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7763529110028212</v>
+        <v>0.78</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7763529110028212</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4519993231934294</v>
+        <v>0.45</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4049862016785407</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4099631665536762</v>
+        <v>0.41</v>
       </c>
       <c r="E6" t="n">
         <v>3899</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7214382688291621</v>
+        <v>0.72</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7763529110028212</v>
+        <v>0.78</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7345361723779245</v>
+        <v>0.73</v>
       </c>
       <c r="E7" t="n">
         <v>3899</v>
